--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/12/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/12/FD_Curve.xlsx
@@ -463,1102 +463,1102 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0310005</v>
+        <v>0.0310004</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11364</v>
+        <v>0.728207</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.64</v>
+        <v>728.207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620038</v>
+        <v>0.0620037</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>0.90385</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>903.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929936</v>
+        <v>0.09299350000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>0.984171</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>984.171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.123997</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>1.05905</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>1059.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155027</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>1.10426</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>1104.26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186003</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>1.13868</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>1138.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.21698</v>
       </c>
       <c r="B9" t="n">
-        <v>7.85945</v>
+        <v>1.16214</v>
       </c>
       <c r="C9" t="n">
-        <v>7859.45</v>
+        <v>1162.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247924</v>
+        <v>0.247956</v>
       </c>
       <c r="B10" t="n">
-        <v>8.74685</v>
+        <v>1.17953</v>
       </c>
       <c r="C10" t="n">
-        <v>8746.85</v>
+        <v>1179.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278849</v>
+        <v>0.278884</v>
       </c>
       <c r="B11" t="n">
-        <v>9.416020000000001</v>
+        <v>1.19056</v>
       </c>
       <c r="C11" t="n">
-        <v>9416.02</v>
+        <v>1190.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309774</v>
+        <v>0.309809</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1199</v>
+        <v>1.2004</v>
       </c>
       <c r="C12" t="n">
-        <v>10119.9</v>
+        <v>1200.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340734</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7457</v>
+        <v>1.20754</v>
       </c>
       <c r="C13" t="n">
-        <v>10745.7</v>
+        <v>1207.54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371659</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2293</v>
+        <v>1.21493</v>
       </c>
       <c r="C14" t="n">
-        <v>11229.3</v>
+        <v>1214.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.40258</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6544</v>
+        <v>1.22096</v>
       </c>
       <c r="C15" t="n">
-        <v>11654.4</v>
+        <v>1220.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433505</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0611</v>
+        <v>1.22734</v>
       </c>
       <c r="C16" t="n">
-        <v>12061.1</v>
+        <v>1227.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.46443</v>
       </c>
       <c r="B17" t="n">
-        <v>12.4163</v>
+        <v>1.2328</v>
       </c>
       <c r="C17" t="n">
-        <v>12416.3</v>
+        <v>1232.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495355</v>
       </c>
       <c r="B18" t="n">
-        <v>12.7235</v>
+        <v>1.23828</v>
       </c>
       <c r="C18" t="n">
-        <v>12723.5</v>
+        <v>1238.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.52628</v>
       </c>
       <c r="B19" t="n">
-        <v>12.9233</v>
+        <v>1.24367</v>
       </c>
       <c r="C19" t="n">
-        <v>12923.3</v>
+        <v>1243.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557205</v>
       </c>
       <c r="B20" t="n">
-        <v>13.0993</v>
+        <v>1.24863</v>
       </c>
       <c r="C20" t="n">
-        <v>13099.3</v>
+        <v>1248.63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.58813</v>
       </c>
       <c r="B21" t="n">
-        <v>13.1675</v>
+        <v>1.25356</v>
       </c>
       <c r="C21" t="n">
-        <v>13167.5</v>
+        <v>1253.56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6191719999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>13.1803</v>
+        <v>1.2583</v>
       </c>
       <c r="C22" t="n">
-        <v>13180.3</v>
+        <v>1258.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.650345</v>
       </c>
       <c r="B23" t="n">
-        <v>13.147</v>
+        <v>1.26286</v>
       </c>
       <c r="C23" t="n">
-        <v>13147</v>
+        <v>1262.86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681522</v>
       </c>
       <c r="B24" t="n">
-        <v>13.0967</v>
+        <v>1.26738</v>
       </c>
       <c r="C24" t="n">
-        <v>13096.7</v>
+        <v>1267.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712694</v>
       </c>
       <c r="B25" t="n">
-        <v>13.0391</v>
+        <v>1.27173</v>
       </c>
       <c r="C25" t="n">
-        <v>13039.1</v>
+        <v>1271.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.7438709999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>12.9777</v>
+        <v>1.27595</v>
       </c>
       <c r="C26" t="n">
-        <v>12977.7</v>
+        <v>1275.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775044</v>
       </c>
       <c r="B27" t="n">
-        <v>12.908</v>
+        <v>1.2801</v>
       </c>
       <c r="C27" t="n">
-        <v>12908</v>
+        <v>1280.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806216</v>
       </c>
       <c r="B28" t="n">
-        <v>12.833</v>
+        <v>1.28413</v>
       </c>
       <c r="C28" t="n">
-        <v>12833</v>
+        <v>1284.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.8373930000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>12.7507</v>
+        <v>1.28807</v>
       </c>
       <c r="C29" t="n">
-        <v>12750.7</v>
+        <v>1288.07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.8685659999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>12.6642</v>
+        <v>1.29193</v>
       </c>
       <c r="C30" t="n">
-        <v>12664.2</v>
+        <v>1291.93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899708</v>
+        <v>0.899738</v>
       </c>
       <c r="B31" t="n">
-        <v>12.5686</v>
+        <v>1.2957</v>
       </c>
       <c r="C31" t="n">
-        <v>12568.6</v>
+        <v>1295.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930916</v>
       </c>
       <c r="B32" t="n">
-        <v>12.4731</v>
+        <v>1.2994</v>
       </c>
       <c r="C32" t="n">
-        <v>12473.1</v>
+        <v>1299.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620880000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>12.3645</v>
+        <v>1.30302</v>
       </c>
       <c r="C33" t="n">
-        <v>12364.5</v>
+        <v>1303.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9932299999999999</v>
+        <v>0.9932609999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>12.2573</v>
+        <v>1.30657</v>
       </c>
       <c r="C34" t="n">
-        <v>12257.3</v>
+        <v>1306.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1385</v>
+        <v>1.31007</v>
       </c>
       <c r="C35" t="n">
-        <v>12138.5</v>
+        <v>1310.07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0175</v>
+        <v>1.31349</v>
       </c>
       <c r="C36" t="n">
-        <v>12017.5</v>
+        <v>1313.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>11.8895</v>
+        <v>1.31686</v>
       </c>
       <c r="C37" t="n">
-        <v>11889.5</v>
+        <v>1316.86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>11.7536</v>
+        <v>1.32017</v>
       </c>
       <c r="C38" t="n">
-        <v>11753.6</v>
+        <v>1320.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>11.6161</v>
+        <v>1.32342</v>
       </c>
       <c r="C39" t="n">
-        <v>11616.1</v>
+        <v>1323.42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18107</v>
       </c>
       <c r="B40" t="n">
-        <v>11.4663</v>
+        <v>1.32663</v>
       </c>
       <c r="C40" t="n">
-        <v>11466.3</v>
+        <v>1326.63</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21007</v>
+        <v>1.21203</v>
       </c>
       <c r="B41" t="n">
-        <v>11.3176</v>
+        <v>1.32977</v>
       </c>
       <c r="C41" t="n">
-        <v>11317.6</v>
+        <v>1329.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24103</v>
+        <v>1.243</v>
       </c>
       <c r="B42" t="n">
-        <v>11.1567</v>
+        <v>1.33288</v>
       </c>
       <c r="C42" t="n">
-        <v>11156.7</v>
+        <v>1332.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27218</v>
+        <v>1.27397</v>
       </c>
       <c r="B43" t="n">
-        <v>6.78251</v>
+        <v>1.33593</v>
       </c>
       <c r="C43" t="n">
-        <v>6782.51</v>
+        <v>1335.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3029</v>
+        <v>1.30494</v>
       </c>
       <c r="B44" t="n">
-        <v>8.65748</v>
+        <v>1.33894</v>
       </c>
       <c r="C44" t="n">
-        <v>8657.48</v>
+        <v>1338.94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33362</v>
+        <v>1.3359</v>
       </c>
       <c r="B45" t="n">
-        <v>9.911580000000001</v>
+        <v>1.3419</v>
       </c>
       <c r="C45" t="n">
-        <v>9911.58</v>
+        <v>1341.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36457</v>
+        <v>1.36687</v>
       </c>
       <c r="B46" t="n">
-        <v>10.6592</v>
+        <v>1.34482</v>
       </c>
       <c r="C46" t="n">
-        <v>10659.2</v>
+        <v>1344.82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39583</v>
+        <v>1.39784</v>
       </c>
       <c r="B47" t="n">
-        <v>10.8775</v>
+        <v>1.34769</v>
       </c>
       <c r="C47" t="n">
-        <v>10877.5</v>
+        <v>1347.69</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42661</v>
+        <v>1.42881</v>
       </c>
       <c r="B48" t="n">
-        <v>10.582</v>
+        <v>1.35054</v>
       </c>
       <c r="C48" t="n">
-        <v>10582</v>
+        <v>1350.54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45784</v>
+        <v>1.45978</v>
       </c>
       <c r="B49" t="n">
-        <v>10.2876</v>
+        <v>1.35333</v>
       </c>
       <c r="C49" t="n">
-        <v>10287.6</v>
+        <v>1353.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48886</v>
+        <v>1.49074</v>
       </c>
       <c r="B50" t="n">
-        <v>10.2346</v>
+        <v>1.35609</v>
       </c>
       <c r="C50" t="n">
-        <v>10234.6</v>
+        <v>1356.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51961</v>
+        <v>1.52171</v>
       </c>
       <c r="B51" t="n">
-        <v>10.2584</v>
+        <v>1.35881</v>
       </c>
       <c r="C51" t="n">
-        <v>10258.4</v>
+        <v>1358.81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55097</v>
+        <v>1.55268</v>
       </c>
       <c r="B52" t="n">
-        <v>9.879790000000002</v>
+        <v>1.36149</v>
       </c>
       <c r="C52" t="n">
-        <v>9879.790000000001</v>
+        <v>1361.49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58198</v>
+        <v>1.58365</v>
       </c>
       <c r="B53" t="n">
-        <v>9.706569999999999</v>
+        <v>1.36415</v>
       </c>
       <c r="C53" t="n">
-        <v>9706.57</v>
+        <v>1364.15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61301</v>
+        <v>1.61462</v>
       </c>
       <c r="B54" t="n">
-        <v>9.523680000000001</v>
+        <v>1.36676</v>
       </c>
       <c r="C54" t="n">
-        <v>9523.68</v>
+        <v>1366.76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64402</v>
+        <v>1.64558</v>
       </c>
       <c r="B55" t="n">
-        <v>9.327219999999999</v>
+        <v>1.36935</v>
       </c>
       <c r="C55" t="n">
-        <v>9327.219999999999</v>
+        <v>1369.35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.675</v>
+        <v>1.67623</v>
       </c>
       <c r="B56" t="n">
-        <v>9.069120000000002</v>
+        <v>1.3719</v>
       </c>
       <c r="C56" t="n">
-        <v>9069.120000000001</v>
+        <v>1371.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70603</v>
+        <v>1.70678</v>
       </c>
       <c r="B57" t="n">
-        <v>8.835379999999999</v>
+        <v>1.37442</v>
       </c>
       <c r="C57" t="n">
-        <v>8835.379999999999</v>
+        <v>1374.42</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73704</v>
+        <v>1.73734</v>
       </c>
       <c r="B58" t="n">
-        <v>8.741100000000001</v>
+        <v>1.37691</v>
       </c>
       <c r="C58" t="n">
-        <v>8741.1</v>
+        <v>1376.91</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76791</v>
+        <v>1.76789</v>
       </c>
       <c r="B59" t="n">
-        <v>8.55218</v>
+        <v>1.37937</v>
       </c>
       <c r="C59" t="n">
-        <v>8552.18</v>
+        <v>1379.37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79896</v>
+        <v>1.79845</v>
       </c>
       <c r="B60" t="n">
-        <v>8.40071</v>
+        <v>1.38182</v>
       </c>
       <c r="C60" t="n">
-        <v>8400.709999999999</v>
+        <v>1381.82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82978</v>
+        <v>1.829</v>
       </c>
       <c r="B61" t="n">
-        <v>8.162330000000001</v>
+        <v>1.38423</v>
       </c>
       <c r="C61" t="n">
-        <v>8162.33</v>
+        <v>1384.23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86104</v>
+        <v>1.85956</v>
       </c>
       <c r="B62" t="n">
-        <v>7.98749</v>
+        <v>1.38662</v>
       </c>
       <c r="C62" t="n">
-        <v>7987.49</v>
+        <v>1386.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89174</v>
+        <v>1.89011</v>
       </c>
       <c r="B63" t="n">
-        <v>7.79871</v>
+        <v>1.38897</v>
       </c>
       <c r="C63" t="n">
-        <v>7798.71</v>
+        <v>1388.97</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92301</v>
+        <v>1.92066</v>
       </c>
       <c r="B64" t="n">
-        <v>7.73544</v>
+        <v>1.39131</v>
       </c>
       <c r="C64" t="n">
-        <v>7735.44</v>
+        <v>1391.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95396</v>
+        <v>1.95172</v>
       </c>
       <c r="B65" t="n">
-        <v>7.52366</v>
+        <v>1.39364</v>
       </c>
       <c r="C65" t="n">
-        <v>7523.66</v>
+        <v>1393.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98461</v>
+        <v>1.98329</v>
       </c>
       <c r="B66" t="n">
-        <v>7.391319999999999</v>
+        <v>1.39599</v>
       </c>
       <c r="C66" t="n">
-        <v>7391.32</v>
+        <v>1395.99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01585</v>
+        <v>2.01487</v>
       </c>
       <c r="B67" t="n">
-        <v>7.254840000000001</v>
+        <v>1.39832</v>
       </c>
       <c r="C67" t="n">
-        <v>7254.84</v>
+        <v>1398.32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0463</v>
+        <v>2.04644</v>
       </c>
       <c r="B68" t="n">
-        <v>7.14327</v>
+        <v>1.40061</v>
       </c>
       <c r="C68" t="n">
-        <v>7143.27</v>
+        <v>1400.61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07754</v>
+        <v>2.07801</v>
       </c>
       <c r="B69" t="n">
-        <v>7.0101</v>
+        <v>1.40288</v>
       </c>
       <c r="C69" t="n">
-        <v>7010.1</v>
+        <v>1402.88</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10868</v>
+        <v>2.10958</v>
       </c>
       <c r="B70" t="n">
-        <v>6.86634</v>
+        <v>1.40512</v>
       </c>
       <c r="C70" t="n">
-        <v>6866.34</v>
+        <v>1405.12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13944</v>
+        <v>2.14116</v>
       </c>
       <c r="B71" t="n">
-        <v>6.766760000000001</v>
+        <v>1.40735</v>
       </c>
       <c r="C71" t="n">
-        <v>6766.76</v>
+        <v>1407.35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17053</v>
+        <v>2.17273</v>
       </c>
       <c r="B72" t="n">
-        <v>6.66837</v>
+        <v>1.40954</v>
       </c>
       <c r="C72" t="n">
-        <v>6668.37</v>
+        <v>1409.54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20161</v>
+        <v>2.2043</v>
       </c>
       <c r="B73" t="n">
-        <v>6.574680000000001</v>
+        <v>1.41172</v>
       </c>
       <c r="C73" t="n">
-        <v>6574.68</v>
+        <v>1411.72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23267</v>
+        <v>2.23588</v>
       </c>
       <c r="B74" t="n">
-        <v>6.46009</v>
+        <v>1.41388</v>
       </c>
       <c r="C74" t="n">
-        <v>6460.09</v>
+        <v>1413.88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26328</v>
+        <v>2.26745</v>
       </c>
       <c r="B75" t="n">
-        <v>6.39517</v>
+        <v>1.41602</v>
       </c>
       <c r="C75" t="n">
-        <v>6395.17</v>
+        <v>1416.02</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29419</v>
+        <v>2.29903</v>
       </c>
       <c r="B76" t="n">
-        <v>6.318210000000001</v>
+        <v>1.41814</v>
       </c>
       <c r="C76" t="n">
-        <v>6318.21</v>
+        <v>1418.14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3256</v>
+        <v>2.3306</v>
       </c>
       <c r="B77" t="n">
-        <v>6.23576</v>
+        <v>1.42024</v>
       </c>
       <c r="C77" t="n">
-        <v>6235.76</v>
+        <v>1420.24</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.357</v>
+        <v>2.36164</v>
       </c>
       <c r="B78" t="n">
-        <v>6.14875</v>
+        <v>1.42232</v>
       </c>
       <c r="C78" t="n">
-        <v>6148.75</v>
+        <v>1422.32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38667</v>
+        <v>2.39236</v>
       </c>
       <c r="B79" t="n">
-        <v>6.12362</v>
+        <v>1.42438</v>
       </c>
       <c r="C79" t="n">
-        <v>6123.62</v>
+        <v>1424.38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41795</v>
+        <v>2.42308</v>
       </c>
       <c r="B80" t="n">
-        <v>6.04371</v>
+        <v>1.42641</v>
       </c>
       <c r="C80" t="n">
-        <v>6043.71</v>
+        <v>1426.41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4499</v>
+        <v>2.4538</v>
       </c>
       <c r="B81" t="n">
-        <v>5.96672</v>
+        <v>1.42843</v>
       </c>
       <c r="C81" t="n">
-        <v>5966.72</v>
+        <v>1428.43</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48103</v>
+        <v>2.48452</v>
       </c>
       <c r="B82" t="n">
-        <v>5.90536</v>
+        <v>1.43042</v>
       </c>
       <c r="C82" t="n">
-        <v>5905.36</v>
+        <v>1430.42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51091</v>
+        <v>2.51524</v>
       </c>
       <c r="B83" t="n">
-        <v>5.8722</v>
+        <v>1.43239</v>
       </c>
       <c r="C83" t="n">
-        <v>5872.2</v>
+        <v>1432.39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54065</v>
+        <v>2.54596</v>
       </c>
       <c r="B84" t="n">
-        <v>5.82202</v>
+        <v>1.43435</v>
       </c>
       <c r="C84" t="n">
-        <v>5822.02</v>
+        <v>1434.35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56891</v>
+        <v>2.57668</v>
       </c>
       <c r="B85" t="n">
-        <v>5.78965</v>
+        <v>1.43628</v>
       </c>
       <c r="C85" t="n">
-        <v>5789.65</v>
+        <v>1436.28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59707</v>
+        <v>2.6074</v>
       </c>
       <c r="B86" t="n">
-        <v>5.79264</v>
+        <v>1.4382</v>
       </c>
       <c r="C86" t="n">
-        <v>5792.64</v>
+        <v>1438.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62647</v>
+        <v>2.63812</v>
       </c>
       <c r="B87" t="n">
-        <v>5.805770000000001</v>
+        <v>1.4401</v>
       </c>
       <c r="C87" t="n">
-        <v>5805.77</v>
+        <v>1440.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66162</v>
+        <v>2.66884</v>
       </c>
       <c r="B88" t="n">
-        <v>5.74446</v>
+        <v>1.44199</v>
       </c>
       <c r="C88" t="n">
-        <v>5744.46</v>
+        <v>1441.99</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69682</v>
+        <v>2.69956</v>
       </c>
       <c r="B89" t="n">
-        <v>5.7716</v>
+        <v>1.44385</v>
       </c>
       <c r="C89" t="n">
-        <v>5771.6</v>
+        <v>1443.85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72932</v>
+        <v>2.73028</v>
       </c>
       <c r="B90" t="n">
-        <v>5.733210000000001</v>
+        <v>1.4457</v>
       </c>
       <c r="C90" t="n">
-        <v>5733.21</v>
+        <v>1445.7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76132</v>
+        <v>2.761</v>
       </c>
       <c r="B91" t="n">
-        <v>5.69032</v>
+        <v>1.44752</v>
       </c>
       <c r="C91" t="n">
-        <v>5690.32</v>
+        <v>1447.52</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79332</v>
+        <v>2.79172</v>
       </c>
       <c r="B92" t="n">
-        <v>5.67072</v>
+        <v>1.44933</v>
       </c>
       <c r="C92" t="n">
-        <v>5670.72</v>
+        <v>1449.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82532</v>
+        <v>2.82244</v>
       </c>
       <c r="B93" t="n">
-        <v>5.651479999999999</v>
+        <v>1.45113</v>
       </c>
       <c r="C93" t="n">
-        <v>5651.48</v>
+        <v>1451.13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85732</v>
+        <v>2.85316</v>
       </c>
       <c r="B94" t="n">
-        <v>5.63464</v>
+        <v>1.4529</v>
       </c>
       <c r="C94" t="n">
-        <v>5634.64</v>
+        <v>1452.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88932</v>
+        <v>2.88388</v>
       </c>
       <c r="B95" t="n">
-        <v>5.59431</v>
+        <v>1.45466</v>
       </c>
       <c r="C95" t="n">
-        <v>5594.31</v>
+        <v>1454.66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92132</v>
+        <v>2.9146</v>
       </c>
       <c r="B96" t="n">
-        <v>5.55803</v>
+        <v>1.45641</v>
       </c>
       <c r="C96" t="n">
-        <v>5558.03</v>
+        <v>1456.41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95158</v>
+        <v>2.94532</v>
       </c>
       <c r="B97" t="n">
-        <v>5.508850000000001</v>
+        <v>1.45815</v>
       </c>
       <c r="C97" t="n">
-        <v>5508.85</v>
+        <v>1458.15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9804</v>
+        <v>2.97604</v>
       </c>
       <c r="B98" t="n">
-        <v>5.467600000000001</v>
+        <v>1.45986</v>
       </c>
       <c r="C98" t="n">
-        <v>5467.6</v>
+        <v>1459.86</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0092</v>
+        <v>3.00676</v>
       </c>
       <c r="B99" t="n">
-        <v>5.45159</v>
+        <v>1.46156</v>
       </c>
       <c r="C99" t="n">
-        <v>5451.59</v>
+        <v>1461.56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.038</v>
+        <v>3.03748</v>
       </c>
       <c r="B100" t="n">
-        <v>5.42916</v>
+        <v>1.46325</v>
       </c>
       <c r="C100" t="n">
-        <v>5429.16</v>
+        <v>1463.25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0668</v>
+        <v>3.0682</v>
       </c>
       <c r="B101" t="n">
-        <v>5.37657</v>
+        <v>1.46493</v>
       </c>
       <c r="C101" t="n">
-        <v>5376.57</v>
+        <v>1464.93</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.0956</v>
+        <v>3.09892</v>
       </c>
       <c r="B102" t="n">
-        <v>5.34128</v>
+        <v>1.4666</v>
       </c>
       <c r="C102" t="n">
-        <v>5341.28</v>
+        <v>1466.6</v>
       </c>
     </row>
   </sheetData>
